--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="6840" yWindow="240" windowWidth="13485" windowHeight="10110" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2022" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="REMISIONES    AGOSTO    2022" sheetId="8" r:id="rId8"/>
     <sheet name="REMISIONES  SEPTIEMBRE 2022    " sheetId="9" r:id="rId9"/>
     <sheet name="REMISIONES  OCTUBRE   2022    " sheetId="11" r:id="rId10"/>
-    <sheet name="Hoja3" sheetId="12" r:id="rId11"/>
+    <sheet name=" REMISIONES  NOVIEMBRE   2022  " sheetId="12" r:id="rId11"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="117">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -437,6 +437,12 @@
   <si>
     <t>29-Oct-22--30-Oct-22</t>
   </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   NOVIEMBRE    2 0 2 2</t>
+  </si>
+  <si>
+    <t>29-Oct-22--1-Nov-22</t>
+  </si>
 </sst>
 </file>
 
@@ -824,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,6 +1007,30 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,6 +1274,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="35180592"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="27751090"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="27798717"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2449,25 +2590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3215,12 +3356,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="84">
+      <c r="E45" s="94">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="96"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3236,11 +3377,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3362,11 +3503,11 @@
   </sheetPr>
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3385,25 +3526,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -5652,11 +5793,15 @@
       <c r="E88" s="23">
         <v>6734</v>
       </c>
-      <c r="F88" s="61"/>
-      <c r="G88" s="62"/>
+      <c r="F88" s="61">
+        <v>44866</v>
+      </c>
+      <c r="G88" s="62">
+        <v>2000</v>
+      </c>
       <c r="H88" s="76">
         <f t="shared" si="0"/>
-        <v>6734</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -5686,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="26">
         <v>44862</v>
       </c>
@@ -5701,18 +5846,19 @@
       <c r="E90" s="23">
         <v>1885</v>
       </c>
-      <c r="F90" s="61">
-        <v>44863</v>
+      <c r="F90" s="63" t="s">
+        <v>116</v>
       </c>
       <c r="G90" s="62">
-        <v>1000</v>
+        <f>1000+885</f>
+        <v>1885</v>
       </c>
       <c r="H90" s="76">
         <f t="shared" si="0"/>
-        <v>885</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="26">
         <v>44862</v>
       </c>
@@ -5727,15 +5873,16 @@
       <c r="E91" s="23">
         <v>2133</v>
       </c>
-      <c r="F91" s="64">
-        <v>44863</v>
-      </c>
-      <c r="G91" s="25">
-        <v>1833</v>
+      <c r="F91" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" s="62">
+        <f>1833+300</f>
+        <v>2133</v>
       </c>
       <c r="H91" s="76">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -5780,11 +5927,15 @@
       <c r="E93" s="23">
         <v>4401</v>
       </c>
-      <c r="F93" s="63"/>
-      <c r="G93" s="62"/>
+      <c r="F93" s="63">
+        <v>44866</v>
+      </c>
+      <c r="G93" s="62">
+        <v>4401</v>
+      </c>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
-        <v>4401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="26">
         <v>44863</v>
       </c>
@@ -5876,15 +6027,16 @@
       <c r="E97" s="23">
         <v>5278</v>
       </c>
-      <c r="F97" s="64">
-        <v>44863</v>
-      </c>
-      <c r="G97" s="25">
-        <v>3778</v>
+      <c r="F97" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G97" s="62">
+        <f>3778+1500</f>
+        <v>5278</v>
       </c>
       <c r="H97" s="76">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5928,11 +6080,15 @@
       <c r="E99" s="23">
         <v>9430</v>
       </c>
-      <c r="F99" s="61"/>
-      <c r="G99" s="62"/>
+      <c r="F99" s="61">
+        <v>44866</v>
+      </c>
+      <c r="G99" s="62">
+        <v>9430</v>
+      </c>
       <c r="H99" s="76">
         <f t="shared" si="0"/>
-        <v>9430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5997,11 +6153,11 @@
       <c r="F103" s="45"/>
       <c r="G103" s="45">
         <f>SUM(G4:G102)</f>
-        <v>565004</v>
+        <v>583520</v>
       </c>
       <c r="H103" s="78">
         <f>SUM(H4:H102)</f>
-        <v>55526</v>
+        <v>37010</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -6043,12 +6199,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="84">
+      <c r="E107" s="94">
         <f>E103-G103</f>
-        <v>55526</v>
-      </c>
-      <c r="F107" s="85"/>
-      <c r="G107" s="86"/>
+        <v>37010</v>
+      </c>
+      <c r="F107" s="95"/>
+      <c r="G107" s="96"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6064,11 +6220,1874 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="87" t="s">
+      <c r="E109" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="87"/>
-      <c r="G109" s="87"/>
+      <c r="F109" s="97"/>
+      <c r="G109" s="97"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="43"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="49"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="26"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="55"/>
+      <c r="G111" s="54"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="43"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="49"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="43"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="49"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="43"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="49"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="43"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="49"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="43"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="49"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="43"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="49"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="49"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="43"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="49"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="43"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="49"/>
+      <c r="I120" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="E109:G109"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="57" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="18" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44865</v>
+      </c>
+      <c r="B4" s="15">
+        <v>713</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4481</v>
+      </c>
+      <c r="F4" s="81">
+        <v>44866</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4481</v>
+      </c>
+      <c r="H4" s="76">
+        <f t="shared" ref="H4:H102" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15">
+        <v>714</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>715</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>716</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>717</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>718</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>719</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>721</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>722</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>723</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>724</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>725</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>726</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>727</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>728</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>730</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>731</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>732</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>733</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>734</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>736</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>737</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15">
+        <f t="shared" si="1"/>
+        <v>738</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15">
+        <f t="shared" si="1"/>
+        <v>739</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
+        <f t="shared" si="1"/>
+        <v>740</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15">
+        <f t="shared" si="1"/>
+        <v>741</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15">
+        <f t="shared" si="1"/>
+        <v>742</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15">
+        <f t="shared" si="1"/>
+        <v>745</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15">
+        <f t="shared" si="1"/>
+        <v>746</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15">
+        <f t="shared" si="1"/>
+        <v>747</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15">
+        <f t="shared" si="1"/>
+        <v>748</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15">
+        <f t="shared" si="1"/>
+        <v>751</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
+        <f t="shared" si="1"/>
+        <v>753</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15">
+        <f t="shared" si="1"/>
+        <v>754</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15">
+        <f t="shared" si="1"/>
+        <v>755</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15">
+        <f t="shared" si="1"/>
+        <v>757</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15">
+        <f t="shared" si="1"/>
+        <v>758</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
+        <f t="shared" si="1"/>
+        <v>759</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+      <c r="C51" s="29"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15">
+        <f t="shared" si="1"/>
+        <v>761</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="15">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15">
+        <f t="shared" si="1"/>
+        <v>763</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="15">
+        <f t="shared" si="1"/>
+        <v>764</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15">
+        <f t="shared" si="1"/>
+        <v>766</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15">
+        <f t="shared" si="1"/>
+        <v>767</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="15">
+        <f t="shared" si="1"/>
+        <v>768</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="15">
+        <f t="shared" si="1"/>
+        <v>769</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="15">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="15">
+        <f t="shared" si="1"/>
+        <v>771</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>772</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15">
+        <f t="shared" si="1"/>
+        <v>773</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="15">
+        <f t="shared" si="1"/>
+        <v>774</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="15">
+        <f t="shared" si="1"/>
+        <v>775</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="15">
+        <f t="shared" si="1"/>
+        <v>776</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="15">
+        <f t="shared" si="1"/>
+        <v>777</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="15">
+        <f t="shared" si="1"/>
+        <v>778</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="15">
+        <f t="shared" ref="B70:B100" si="2">B69+1</f>
+        <v>779</v>
+      </c>
+      <c r="C70" s="29"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="84"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="15">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="C71" s="29"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="15">
+        <f t="shared" si="2"/>
+        <v>781</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="15">
+        <f t="shared" si="2"/>
+        <v>782</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="15">
+        <f t="shared" si="2"/>
+        <v>783</v>
+      </c>
+      <c r="C74" s="29"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="15">
+        <f t="shared" si="2"/>
+        <v>784</v>
+      </c>
+      <c r="C75" s="29"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="26"/>
+      <c r="B76" s="15">
+        <f t="shared" si="2"/>
+        <v>785</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="26"/>
+      <c r="B77" s="15">
+        <f t="shared" si="2"/>
+        <v>786</v>
+      </c>
+      <c r="C77" s="29"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="15">
+        <f t="shared" si="2"/>
+        <v>787</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="15">
+        <f t="shared" si="2"/>
+        <v>788</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="15">
+        <f t="shared" si="2"/>
+        <v>789</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="15">
+        <f t="shared" si="2"/>
+        <v>790</v>
+      </c>
+      <c r="C81" s="29"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="15">
+        <f t="shared" si="2"/>
+        <v>791</v>
+      </c>
+      <c r="C82" s="29"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="15">
+        <f t="shared" si="2"/>
+        <v>792</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="15">
+        <f t="shared" si="2"/>
+        <v>793</v>
+      </c>
+      <c r="C84" s="29"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="84"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="15">
+        <f t="shared" si="2"/>
+        <v>794</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="83"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="15">
+        <f t="shared" si="2"/>
+        <v>795</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="15">
+        <f t="shared" si="2"/>
+        <v>796</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="15">
+        <f t="shared" si="2"/>
+        <v>797</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="88"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="15">
+        <f t="shared" si="2"/>
+        <v>798</v>
+      </c>
+      <c r="C89" s="29"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="83"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="15">
+        <f t="shared" si="2"/>
+        <v>799</v>
+      </c>
+      <c r="C90" s="29"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="88"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="B91" s="15">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="C91" s="29"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="15">
+        <f t="shared" si="2"/>
+        <v>801</v>
+      </c>
+      <c r="C92" s="29"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="83"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="26"/>
+      <c r="B93" s="15">
+        <f t="shared" si="2"/>
+        <v>802</v>
+      </c>
+      <c r="C93" s="29"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="26"/>
+      <c r="B94" s="15">
+        <f t="shared" si="2"/>
+        <v>803</v>
+      </c>
+      <c r="C94" s="29"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26"/>
+      <c r="B95" s="15">
+        <f t="shared" si="2"/>
+        <v>804</v>
+      </c>
+      <c r="C95" s="29"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="88"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26"/>
+      <c r="B96" s="15">
+        <f t="shared" si="2"/>
+        <v>805</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="84"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="26"/>
+      <c r="B97" s="15">
+        <f t="shared" si="2"/>
+        <v>806</v>
+      </c>
+      <c r="C97" s="29"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="26"/>
+      <c r="B98" s="15">
+        <f t="shared" si="2"/>
+        <v>807</v>
+      </c>
+      <c r="C98" s="29"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="15">
+        <f t="shared" si="2"/>
+        <v>808</v>
+      </c>
+      <c r="C99" s="29"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26"/>
+      <c r="B100" s="15">
+        <f t="shared" si="2"/>
+        <v>809</v>
+      </c>
+      <c r="C100" s="29"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="26"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="39">
+        <v>0</v>
+      </c>
+      <c r="F102" s="40"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="43"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="45">
+        <f>SUM(E4:E102)</f>
+        <v>4481</v>
+      </c>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45">
+        <f>SUM(G4:G102)</f>
+        <v>4481</v>
+      </c>
+      <c r="H103" s="78">
+        <f>SUM(H4:H102)</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="43"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B105" s="43"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="48"/>
+      <c r="G105" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="79"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="43"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="43"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="94">
+        <f>E103-G103</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="95"/>
+      <c r="G107" s="96"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="43"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="49"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B109" s="43"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="97"/>
+      <c r="G109" s="97"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6183,24 +8202,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B24:B25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6236,25 +8243,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7279,12 +9286,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="84">
+      <c r="E55" s="94">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="86"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="96"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -7300,11 +9307,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="87" t="s">
+      <c r="E57" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -7446,25 +9453,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -8411,12 +10418,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="84">
+      <c r="E52" s="94">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="86"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="96"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -8432,11 +10439,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="87" t="s">
+      <c r="E54" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -8578,25 +10585,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9912,12 +11919,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="84">
+      <c r="E63" s="94">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="85"/>
-      <c r="G63" s="86"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="96"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -9933,11 +11940,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="87" t="s">
+      <c r="E65" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -10079,25 +12086,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11431,12 +13438,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="84">
+      <c r="E57" s="94">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="86"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="96"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -11452,11 +13459,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="87" t="s">
+      <c r="E59" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -11599,25 +13606,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13410,12 +15417,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="84">
+      <c r="E76" s="94">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="85"/>
-      <c r="G76" s="86"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="96"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -13431,11 +15438,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="87" t="s">
+      <c r="E78" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -13577,25 +15584,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15715,12 +17722,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="84">
+      <c r="E87" s="94">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="85"/>
-      <c r="G87" s="86"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="96"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -15736,11 +17743,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="87" t="s">
+      <c r="E89" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
+      <c r="F89" s="97"/>
+      <c r="G89" s="97"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -15886,25 +17893,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18329,12 +20336,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="84">
+      <c r="E98" s="94">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="85"/>
-      <c r="G98" s="86"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="96"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -18350,11 +20357,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="87" t="s">
+      <c r="E100" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="87"/>
-      <c r="G100" s="87"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="97"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -18497,25 +20504,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
+      <c r="B2" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -22087,12 +24094,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="84">
+      <c r="E143" s="94">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="85"/>
-      <c r="G143" s="86"/>
+      <c r="F143" s="95"/>
+      <c r="G143" s="96"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -22108,11 +24115,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="87" t="s">
+      <c r="E145" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="87"/>
-      <c r="G145" s="87"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="129">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -443,6 +443,42 @@
   <si>
     <t>29-Oct-22--1-Nov-22</t>
   </si>
+  <si>
+    <t>1-Nov-22--3-Nov-22</t>
+  </si>
+  <si>
+    <t>5-Nov-22--6-Nov-22</t>
+  </si>
+  <si>
+    <t>4-Nov-22--6-Nov-22</t>
+  </si>
+  <si>
+    <t>4-Nov-22--6-Nov-22--8-Nov-22</t>
+  </si>
+  <si>
+    <t>30-Oct-22--10-Nov-22</t>
+  </si>
+  <si>
+    <t>8-Nov-22--10-Nov-22</t>
+  </si>
+  <si>
+    <t>8-Nov-22--11-Nov-22</t>
+  </si>
+  <si>
+    <t>10-Nov-22--11-Nov-22</t>
+  </si>
+  <si>
+    <t>11-Nov-22--12-Nov-22</t>
+  </si>
+  <si>
+    <t>12-Nov-22--13-Nov-22</t>
+  </si>
+  <si>
+    <t>13-Nov-22--14-Nov-22--15-Nov-22</t>
+  </si>
+  <si>
+    <t>14-Nov-22--15-Nov-22</t>
+  </si>
 </sst>
 </file>
 
@@ -830,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1007,7 +1043,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1020,9 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1055,6 +1087,7 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2590,25 +2623,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3356,12 +3389,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="94">
+      <c r="E45" s="92">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="95"/>
-      <c r="G45" s="96"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3377,11 +3410,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="97" t="s">
+      <c r="E47" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3504,10 +3537,10 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3526,25 +3559,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -5778,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="26">
         <v>44861</v>
       </c>
@@ -5793,15 +5826,16 @@
       <c r="E88" s="23">
         <v>6734</v>
       </c>
-      <c r="F88" s="61">
-        <v>44866</v>
+      <c r="F88" s="63" t="s">
+        <v>117</v>
       </c>
       <c r="G88" s="62">
-        <v>2000</v>
+        <f>2000+4734</f>
+        <v>6734</v>
       </c>
       <c r="H88" s="76">
         <f t="shared" si="0"/>
-        <v>4734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -5938,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="26">
         <v>44863</v>
       </c>
@@ -5953,15 +5987,16 @@
       <c r="E94" s="23">
         <v>11970</v>
       </c>
-      <c r="F94" s="24">
-        <v>44864</v>
-      </c>
-      <c r="G94" s="25">
-        <v>10000</v>
+      <c r="F94" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G94" s="62">
+        <f>10000+1970</f>
+        <v>11970</v>
       </c>
       <c r="H94" s="76">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5979,11 +6014,15 @@
       <c r="E95" s="23">
         <v>15306</v>
       </c>
-      <c r="F95" s="61"/>
-      <c r="G95" s="62"/>
+      <c r="F95" s="61">
+        <v>44868</v>
+      </c>
+      <c r="G95" s="62">
+        <v>15306</v>
+      </c>
       <c r="H95" s="76">
         <f t="shared" si="0"/>
-        <v>15306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6106,11 +6145,15 @@
       <c r="E100" s="23">
         <v>15000</v>
       </c>
-      <c r="F100" s="61"/>
-      <c r="G100" s="62"/>
+      <c r="F100" s="61">
+        <v>44871</v>
+      </c>
+      <c r="G100" s="62">
+        <v>15000</v>
+      </c>
       <c r="H100" s="76">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6153,11 +6196,11 @@
       <c r="F103" s="45"/>
       <c r="G103" s="45">
         <f>SUM(G4:G102)</f>
-        <v>583520</v>
+        <v>620530</v>
       </c>
       <c r="H103" s="78">
         <f>SUM(H4:H102)</f>
-        <v>37010</v>
+        <v>0</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -6199,12 +6242,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="94">
+      <c r="E107" s="92">
         <f>E103-G103</f>
-        <v>37010</v>
-      </c>
-      <c r="F107" s="95"/>
-      <c r="G107" s="96"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="93"/>
+      <c r="G107" s="94"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6220,11 +6263,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="97" t="s">
+      <c r="E109" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="97"/>
-      <c r="G109" s="97"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6348,7 +6391,10 @@
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6367,25 +6413,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6423,13 +6469,13 @@
         <v>713</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="96" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="18">
         <v>4481</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="80">
         <v>44866</v>
       </c>
       <c r="G4" s="20">
@@ -6442,898 +6488,1449 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="14">
+        <v>44866</v>
+      </c>
       <c r="B5" s="15">
         <v>714</v>
       </c>
       <c r="C5" s="16"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="23">
+        <v>6051</v>
+      </c>
+      <c r="F5" s="82">
+        <v>44869</v>
+      </c>
+      <c r="G5" s="25">
+        <v>6051</v>
+      </c>
       <c r="H5" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14">
+        <v>44866</v>
+      </c>
       <c r="B6" s="15">
         <f t="shared" ref="B6:B69" si="1">B5+1</f>
         <v>715</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2555</v>
+      </c>
+      <c r="F6" s="83">
+        <v>44869</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2555</v>
+      </c>
       <c r="H6" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="26">
+        <v>44866</v>
+      </c>
       <c r="B7" s="15">
         <f t="shared" si="1"/>
         <v>716</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="25"/>
+      <c r="D7" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="23">
+        <v>7001</v>
+      </c>
+      <c r="F7" s="83">
+        <v>44867</v>
+      </c>
+      <c r="G7" s="25">
+        <v>7001</v>
+      </c>
       <c r="H7" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14">
+        <v>44867</v>
+      </c>
       <c r="B8" s="15">
         <f t="shared" si="1"/>
         <v>717</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="25"/>
+      <c r="D8" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="23">
+        <v>5652</v>
+      </c>
+      <c r="F8" s="83">
+        <v>44868</v>
+      </c>
+      <c r="G8" s="25">
+        <v>5652</v>
+      </c>
       <c r="H8" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44868</v>
+      </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>718</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="25">
+        <f>787+2213</f>
+        <v>3000</v>
+      </c>
       <c r="H9" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>44868</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>719</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="23">
+        <v>7279</v>
+      </c>
+      <c r="F10" s="82">
+        <v>44869</v>
+      </c>
+      <c r="G10" s="25">
+        <v>7279</v>
+      </c>
       <c r="H10" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14">
+        <v>44868</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="25"/>
+      <c r="D11" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="23">
+        <v>5446</v>
+      </c>
+      <c r="F11" s="82">
+        <v>44870</v>
+      </c>
+      <c r="G11" s="25">
+        <v>5446</v>
+      </c>
       <c r="H11" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>44868</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>721</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="23">
+        <v>15579</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="25">
+        <f>4800+8000+2779</f>
+        <v>15579</v>
+      </c>
       <c r="H12" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>44868</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>722</v>
       </c>
       <c r="C13" s="30"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1398</v>
+      </c>
+      <c r="F13" s="83">
+        <v>44869</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1398</v>
+      </c>
       <c r="H13" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14">
+        <v>44869</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>723</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4061</v>
+      </c>
+      <c r="F14" s="83">
+        <v>44869</v>
+      </c>
+      <c r="G14" s="25">
+        <v>4061</v>
+      </c>
       <c r="H14" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14">
+        <v>44869</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>724</v>
       </c>
       <c r="C15" s="30"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1713</v>
+      </c>
+      <c r="F15" s="83">
+        <v>44870</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1713</v>
+      </c>
       <c r="H15" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="14">
+        <v>44869</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>725</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="25"/>
+      <c r="D16" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3225</v>
+      </c>
+      <c r="F16" s="83">
+        <v>44870</v>
+      </c>
+      <c r="G16" s="25">
+        <v>3225</v>
+      </c>
       <c r="H16" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>44869</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>726</v>
       </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1308</v>
+      </c>
+      <c r="F17" s="82">
+        <v>44870</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1308</v>
+      </c>
       <c r="H17" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>44869</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>727</v>
       </c>
       <c r="C18" s="29"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="25"/>
+      <c r="D18" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="23">
+        <v>12323</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="25">
+        <f>12000+323</f>
+        <v>12323</v>
+      </c>
       <c r="H18" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>44870</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>728</v>
       </c>
       <c r="C19" s="30"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="25"/>
+      <c r="D19" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="23">
+        <v>3722</v>
+      </c>
+      <c r="F19" s="82">
+        <v>44873</v>
+      </c>
+      <c r="G19" s="25">
+        <v>3722</v>
+      </c>
       <c r="H19" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>44870</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>729</v>
       </c>
       <c r="C20" s="29"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="25"/>
+      <c r="D20" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="23">
+        <v>5367</v>
+      </c>
+      <c r="F20" s="82">
+        <v>44871</v>
+      </c>
+      <c r="G20" s="25">
+        <v>5367</v>
+      </c>
       <c r="H20" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14">
+        <v>44870</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>730</v>
       </c>
       <c r="C21" s="29"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="25"/>
+      <c r="D21" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="23">
+        <v>5423</v>
+      </c>
+      <c r="F21" s="82">
+        <v>44871</v>
+      </c>
+      <c r="G21" s="25">
+        <v>5423</v>
+      </c>
       <c r="H21" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>44870</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>731</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="25"/>
+      <c r="D22" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1417</v>
+      </c>
+      <c r="F22" s="83">
+        <v>44871</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1417</v>
+      </c>
       <c r="H22" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>44871</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>732</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="25"/>
+      <c r="D23" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="23">
+        <v>3365</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="25">
+        <f>500+2865</f>
+        <v>3365</v>
+      </c>
       <c r="H23" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44871</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>733</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="25"/>
+      <c r="D24" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="23">
+        <v>15469</v>
+      </c>
+      <c r="F24" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="25">
+        <f>9633+5836</f>
+        <v>15469</v>
+      </c>
       <c r="H24" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>44871</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>734</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="25"/>
+      <c r="D25" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23">
+        <v>6345</v>
+      </c>
+      <c r="F25" s="83">
+        <v>44873</v>
+      </c>
+      <c r="G25" s="25">
+        <v>6345</v>
+      </c>
       <c r="H25" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="14">
+        <v>44871</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>735</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="25"/>
+      <c r="D26" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="23">
+        <v>8439</v>
+      </c>
+      <c r="F26" s="82">
+        <v>44873</v>
+      </c>
+      <c r="G26" s="25">
+        <v>8439</v>
+      </c>
       <c r="H26" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14">
+        <v>44872</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>736</v>
       </c>
       <c r="C27" s="29"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="25"/>
+      <c r="D27" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="23">
+        <v>4873</v>
+      </c>
+      <c r="F27" s="83">
+        <v>44874</v>
+      </c>
+      <c r="G27" s="25">
+        <v>4873</v>
+      </c>
       <c r="H27" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>44873</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>737</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="25"/>
+      <c r="D28" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="23">
+        <v>4447</v>
+      </c>
+      <c r="F28" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="25">
+        <f>1000+2600+847</f>
+        <v>4447</v>
+      </c>
       <c r="H28" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14">
+        <v>44873</v>
+      </c>
       <c r="B29" s="15">
         <f t="shared" si="1"/>
         <v>738</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="25"/>
+      <c r="D29" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="23">
+        <v>5494</v>
+      </c>
+      <c r="F29" s="83">
+        <v>44875</v>
+      </c>
+      <c r="G29" s="25">
+        <v>5494</v>
+      </c>
       <c r="H29" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14">
+        <v>44873</v>
+      </c>
       <c r="B30" s="15">
         <f t="shared" si="1"/>
         <v>739</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="25"/>
+      <c r="D30" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1498</v>
+      </c>
+      <c r="F30" s="82">
+        <v>44874</v>
+      </c>
+      <c r="G30" s="25">
+        <v>1498</v>
+      </c>
       <c r="H30" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>44873</v>
+      </c>
       <c r="B31" s="15">
         <f t="shared" si="1"/>
         <v>740</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="25"/>
+      <c r="D31" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="23">
+        <v>14928</v>
+      </c>
+      <c r="F31" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="25">
+        <f>8500+6428</f>
+        <v>14928</v>
+      </c>
       <c r="H31" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14">
+        <v>44873</v>
+      </c>
       <c r="B32" s="15">
         <f t="shared" si="1"/>
         <v>741</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="25"/>
+      <c r="D32" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="23">
+        <v>6699</v>
+      </c>
+      <c r="F32" s="82">
+        <v>44874</v>
+      </c>
+      <c r="G32" s="25">
+        <v>6699</v>
+      </c>
       <c r="H32" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>44873</v>
+      </c>
       <c r="B33" s="15">
         <f t="shared" si="1"/>
         <v>742</v>
       </c>
       <c r="C33" s="29"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="25"/>
+      <c r="D33" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="23">
+        <v>9487</v>
+      </c>
+      <c r="F33" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="25">
+        <f>9100+387</f>
+        <v>9487</v>
+      </c>
       <c r="H33" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14">
+        <v>44874</v>
+      </c>
       <c r="B34" s="15">
         <f t="shared" si="1"/>
         <v>743</v>
       </c>
       <c r="C34" s="29"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="25"/>
+      <c r="D34" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="23">
+        <v>2941</v>
+      </c>
+      <c r="F34" s="82">
+        <v>44875</v>
+      </c>
+      <c r="G34" s="25">
+        <v>2941</v>
+      </c>
       <c r="H34" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14">
+        <v>44874</v>
+      </c>
       <c r="B35" s="15">
         <f t="shared" si="1"/>
         <v>744</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="25"/>
+      <c r="D35" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="23">
+        <v>4056</v>
+      </c>
+      <c r="F35" s="83">
+        <v>44876</v>
+      </c>
+      <c r="G35" s="25">
+        <v>4056</v>
+      </c>
       <c r="H35" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14">
+        <v>44875</v>
+      </c>
       <c r="B36" s="15">
         <f t="shared" si="1"/>
         <v>745</v>
       </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="25"/>
+      <c r="D36" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="23">
+        <v>320</v>
+      </c>
+      <c r="F36" s="82">
+        <v>44876</v>
+      </c>
+      <c r="G36" s="25">
+        <v>320</v>
+      </c>
       <c r="H36" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14">
+        <v>44875</v>
+      </c>
       <c r="B37" s="15">
         <f t="shared" si="1"/>
         <v>746</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="25"/>
+      <c r="D37" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="23">
+        <v>6225</v>
+      </c>
+      <c r="F37" s="82">
+        <v>44876</v>
+      </c>
+      <c r="G37" s="25">
+        <v>6225</v>
+      </c>
       <c r="H37" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14">
+        <v>44875</v>
+      </c>
       <c r="B38" s="15">
         <f t="shared" si="1"/>
         <v>747</v>
       </c>
       <c r="C38" s="29"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="25"/>
+      <c r="D38" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="23">
+        <v>3314</v>
+      </c>
+      <c r="F38" s="82">
+        <v>44877</v>
+      </c>
+      <c r="G38" s="25">
+        <v>3314</v>
+      </c>
       <c r="H38" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14">
+        <v>44875</v>
+      </c>
       <c r="B39" s="15">
         <f t="shared" si="1"/>
         <v>748</v>
       </c>
       <c r="C39" s="29"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="25"/>
+      <c r="D39" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="23">
+        <v>4234</v>
+      </c>
+      <c r="F39" s="82">
+        <v>44876</v>
+      </c>
+      <c r="G39" s="25">
+        <v>4234</v>
+      </c>
       <c r="H39" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14">
+        <v>44876</v>
+      </c>
       <c r="B40" s="15">
         <f t="shared" si="1"/>
         <v>749</v>
       </c>
       <c r="C40" s="29"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="25"/>
+      <c r="D40" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="23">
+        <v>5021</v>
+      </c>
+      <c r="F40" s="83">
+        <v>44877</v>
+      </c>
+      <c r="G40" s="25">
+        <v>5021</v>
+      </c>
       <c r="H40" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14">
+        <v>44876</v>
+      </c>
       <c r="B41" s="15">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="C41" s="29"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="25"/>
+      <c r="D41" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="23">
+        <v>6139</v>
+      </c>
+      <c r="F41" s="82">
+        <v>44877</v>
+      </c>
+      <c r="G41" s="25">
+        <v>6139</v>
+      </c>
       <c r="H41" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14">
+        <v>44876</v>
+      </c>
       <c r="B42" s="15">
         <f t="shared" si="1"/>
         <v>751</v>
       </c>
       <c r="C42" s="29"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="25"/>
+      <c r="D42" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="23">
+        <v>4845</v>
+      </c>
+      <c r="F42" s="82">
+        <v>44878</v>
+      </c>
+      <c r="G42" s="25">
+        <v>4845</v>
+      </c>
       <c r="H42" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>44876</v>
+      </c>
       <c r="B43" s="15">
         <f t="shared" si="1"/>
         <v>752</v>
       </c>
       <c r="C43" s="29"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="25"/>
+      <c r="D43" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="23">
+        <v>14370</v>
+      </c>
+      <c r="F43" s="82" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="25">
+        <f>2500+4000+4000</f>
+        <v>10500</v>
+      </c>
       <c r="H43" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14">
+        <v>44876</v>
+      </c>
       <c r="B44" s="15">
         <f t="shared" si="1"/>
         <v>753</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="25"/>
+      <c r="D44" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="23">
+        <v>6994</v>
+      </c>
+      <c r="F44" s="82">
+        <v>44877</v>
+      </c>
+      <c r="G44" s="25">
+        <v>6994</v>
+      </c>
       <c r="H44" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
+    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44876</v>
+      </c>
       <c r="B45" s="15">
         <f t="shared" si="1"/>
         <v>754</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="25"/>
+      <c r="D45" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="23">
+        <v>12647</v>
+      </c>
+      <c r="F45" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="25">
+        <f>12500+147</f>
+        <v>12647</v>
+      </c>
       <c r="H45" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14">
+        <v>44876</v>
+      </c>
       <c r="B46" s="15">
         <f t="shared" si="1"/>
         <v>755</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="25"/>
+      <c r="D46" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="23">
+        <v>752</v>
+      </c>
+      <c r="F46" s="83">
+        <v>44877</v>
+      </c>
+      <c r="G46" s="25">
+        <v>752</v>
+      </c>
       <c r="H46" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>44877</v>
+      </c>
       <c r="B47" s="15">
         <f t="shared" si="1"/>
         <v>756</v>
       </c>
       <c r="C47" s="33"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="25"/>
+      <c r="D47" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="23">
+        <v>3906</v>
+      </c>
+      <c r="F47" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="25">
+        <f>3406+500</f>
+        <v>3906</v>
+      </c>
       <c r="H47" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14">
+        <v>44877</v>
+      </c>
       <c r="B48" s="15">
         <f t="shared" si="1"/>
         <v>757</v>
       </c>
       <c r="C48" s="34"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="25"/>
+      <c r="D48" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="23">
+        <v>5784</v>
+      </c>
+      <c r="F48" s="82">
+        <v>44879</v>
+      </c>
+      <c r="G48" s="25">
+        <v>5784</v>
+      </c>
       <c r="H48" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14">
+        <v>44877</v>
+      </c>
       <c r="B49" s="15">
         <f t="shared" si="1"/>
         <v>758</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="25"/>
+      <c r="D49" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="23">
+        <v>4634</v>
+      </c>
+      <c r="F49" s="82">
+        <v>44878</v>
+      </c>
+      <c r="G49" s="25">
+        <v>4634</v>
+      </c>
       <c r="H49" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14">
+        <v>44878</v>
+      </c>
       <c r="B50" s="15">
         <f t="shared" si="1"/>
         <v>759</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="25"/>
+      <c r="D50" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="23">
+        <v>3454</v>
+      </c>
+      <c r="F50" s="82">
+        <v>44880</v>
+      </c>
+      <c r="G50" s="25">
+        <v>3454</v>
+      </c>
       <c r="H50" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="14">
+        <v>44878</v>
+      </c>
       <c r="B51" s="15">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="84"/>
+      <c r="D51" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="23">
+        <v>14307</v>
+      </c>
+      <c r="F51" s="83"/>
       <c r="G51" s="25"/>
       <c r="H51" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14307</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="14">
+        <v>44878</v>
+      </c>
       <c r="B52" s="15">
         <f t="shared" si="1"/>
         <v>761</v>
       </c>
       <c r="C52" s="29"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="25"/>
+      <c r="D52" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="23">
+        <v>24200</v>
+      </c>
+      <c r="F52" s="83">
+        <v>44878</v>
+      </c>
+      <c r="G52" s="25">
+        <v>20000</v>
+      </c>
       <c r="H52" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="14">
+        <v>44878</v>
+      </c>
       <c r="B53" s="15">
         <f t="shared" si="1"/>
         <v>762</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="25"/>
+      <c r="D53" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="23">
+        <v>15984</v>
+      </c>
+      <c r="F53" s="82">
+        <v>44879</v>
+      </c>
+      <c r="G53" s="25">
+        <v>15984</v>
+      </c>
       <c r="H53" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="14">
+        <v>44878</v>
+      </c>
       <c r="B54" s="15">
         <f t="shared" si="1"/>
         <v>763</v>
       </c>
       <c r="C54" s="29"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="25"/>
+      <c r="D54" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="23">
+        <v>8265</v>
+      </c>
+      <c r="F54" s="82">
+        <v>44879</v>
+      </c>
+      <c r="G54" s="25">
+        <v>8265</v>
+      </c>
       <c r="H54" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+      <c r="A55" s="66">
+        <v>44878</v>
+      </c>
       <c r="B55" s="15">
         <f t="shared" si="1"/>
         <v>764</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="69"/>
+      <c r="D55" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="68">
+        <v>3682</v>
+      </c>
+      <c r="F55" s="82">
+        <v>44879</v>
+      </c>
+      <c r="G55" s="69">
+        <v>3682</v>
+      </c>
       <c r="H55" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+      <c r="A56" s="14">
+        <v>44879</v>
+      </c>
       <c r="B56" s="15">
         <f t="shared" si="1"/>
         <v>765</v>
       </c>
       <c r="C56" s="29"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="83"/>
+      <c r="D56" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="23">
+        <v>281</v>
+      </c>
+      <c r="F56" s="82"/>
       <c r="G56" s="25"/>
       <c r="H56" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14">
+        <v>44879</v>
+      </c>
       <c r="B57" s="15">
         <f t="shared" si="1"/>
         <v>766</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="84"/>
+      <c r="D57" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="23">
+        <v>5079</v>
+      </c>
+      <c r="F57" s="83"/>
       <c r="G57" s="25"/>
       <c r="H57" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+      <c r="A58" s="14">
+        <v>44879</v>
+      </c>
       <c r="B58" s="15">
         <f t="shared" si="1"/>
         <v>767</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="84"/>
+      <c r="D58" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="23">
+        <v>2565</v>
+      </c>
+      <c r="F58" s="83"/>
       <c r="G58" s="25"/>
       <c r="H58" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14">
+        <v>44879</v>
+      </c>
       <c r="B59" s="15">
         <f t="shared" si="1"/>
         <v>768</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="25"/>
+      <c r="D59" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="23">
+        <v>7387</v>
+      </c>
+      <c r="F59" s="82">
+        <v>44880</v>
+      </c>
+      <c r="G59" s="25">
+        <v>7387</v>
+      </c>
       <c r="H59" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14">
+        <v>44879</v>
+      </c>
       <c r="B60" s="15">
         <f t="shared" si="1"/>
         <v>769</v>
       </c>
       <c r="C60" s="29"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="83"/>
+      <c r="D60" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="23">
+        <v>2125</v>
+      </c>
+      <c r="F60" s="82"/>
       <c r="G60" s="25"/>
       <c r="H60" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7343,9 +7940,9 @@
         <v>770</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="85"/>
+      <c r="D61" s="81"/>
       <c r="E61" s="23"/>
-      <c r="F61" s="84"/>
+      <c r="F61" s="83"/>
       <c r="G61" s="25"/>
       <c r="H61" s="76">
         <f t="shared" si="0"/>
@@ -7359,9 +7956,9 @@
         <v>771</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="85"/>
+      <c r="D62" s="81"/>
       <c r="E62" s="23"/>
-      <c r="F62" s="83"/>
+      <c r="F62" s="82"/>
       <c r="G62" s="25"/>
       <c r="H62" s="76">
         <f t="shared" si="0"/>
@@ -7375,9 +7972,9 @@
         <v>772</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="85"/>
+      <c r="D63" s="81"/>
       <c r="E63" s="23"/>
-      <c r="F63" s="83"/>
+      <c r="F63" s="82"/>
       <c r="G63" s="25"/>
       <c r="H63" s="76">
         <f t="shared" si="0"/>
@@ -7391,25 +7988,25 @@
         <v>773</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="85"/>
+      <c r="D64" s="81"/>
       <c r="E64" s="23"/>
-      <c r="F64" s="84"/>
+      <c r="F64" s="83"/>
       <c r="G64" s="25"/>
       <c r="H64" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>774</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="85"/>
+      <c r="D65" s="84"/>
       <c r="E65" s="23"/>
-      <c r="F65" s="83"/>
+      <c r="F65" s="82"/>
       <c r="G65" s="25"/>
       <c r="H65" s="76">
         <f t="shared" si="0"/>
@@ -7423,9 +8020,9 @@
         <v>775</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="85"/>
+      <c r="D66" s="84"/>
       <c r="E66" s="23"/>
-      <c r="F66" s="83"/>
+      <c r="F66" s="82"/>
       <c r="G66" s="25"/>
       <c r="H66" s="76">
         <f t="shared" si="0"/>
@@ -7439,9 +8036,9 @@
         <v>776</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="85"/>
+      <c r="D67" s="84"/>
       <c r="E67" s="23"/>
-      <c r="F67" s="83"/>
+      <c r="F67" s="82"/>
       <c r="G67" s="25"/>
       <c r="H67" s="76">
         <f t="shared" si="0"/>
@@ -7455,9 +8052,9 @@
         <v>777</v>
       </c>
       <c r="C68" s="29"/>
-      <c r="D68" s="85"/>
+      <c r="D68" s="84"/>
       <c r="E68" s="23"/>
-      <c r="F68" s="83"/>
+      <c r="F68" s="82"/>
       <c r="G68" s="25"/>
       <c r="H68" s="76">
         <f t="shared" si="0"/>
@@ -7471,9 +8068,9 @@
         <v>778</v>
       </c>
       <c r="C69" s="29"/>
-      <c r="D69" s="85"/>
+      <c r="D69" s="84"/>
       <c r="E69" s="23"/>
-      <c r="F69" s="83"/>
+      <c r="F69" s="82"/>
       <c r="G69" s="25"/>
       <c r="H69" s="76">
         <f t="shared" si="0"/>
@@ -7487,9 +8084,9 @@
         <v>779</v>
       </c>
       <c r="C70" s="29"/>
-      <c r="D70" s="85"/>
+      <c r="D70" s="84"/>
       <c r="E70" s="23"/>
-      <c r="F70" s="84"/>
+      <c r="F70" s="83"/>
       <c r="G70" s="25"/>
       <c r="H70" s="76">
         <f t="shared" si="0"/>
@@ -7503,9 +8100,9 @@
         <v>780</v>
       </c>
       <c r="C71" s="29"/>
-      <c r="D71" s="85"/>
+      <c r="D71" s="84"/>
       <c r="E71" s="23"/>
-      <c r="F71" s="83"/>
+      <c r="F71" s="82"/>
       <c r="G71" s="25"/>
       <c r="H71" s="76">
         <f t="shared" si="0"/>
@@ -7519,9 +8116,9 @@
         <v>781</v>
       </c>
       <c r="C72" s="29"/>
-      <c r="D72" s="85"/>
+      <c r="D72" s="84"/>
       <c r="E72" s="23"/>
-      <c r="F72" s="84"/>
+      <c r="F72" s="83"/>
       <c r="G72" s="25"/>
       <c r="H72" s="76">
         <f t="shared" si="0"/>
@@ -7535,9 +8132,9 @@
         <v>782</v>
       </c>
       <c r="C73" s="29"/>
-      <c r="D73" s="85"/>
+      <c r="D73" s="84"/>
       <c r="E73" s="23"/>
-      <c r="F73" s="84"/>
+      <c r="F73" s="83"/>
       <c r="G73" s="25"/>
       <c r="H73" s="76">
         <f t="shared" si="0"/>
@@ -7551,9 +8148,9 @@
         <v>783</v>
       </c>
       <c r="C74" s="29"/>
-      <c r="D74" s="85"/>
+      <c r="D74" s="84"/>
       <c r="E74" s="23"/>
-      <c r="F74" s="83"/>
+      <c r="F74" s="82"/>
       <c r="G74" s="25"/>
       <c r="H74" s="76">
         <f t="shared" si="0"/>
@@ -7567,9 +8164,9 @@
         <v>784</v>
       </c>
       <c r="C75" s="29"/>
-      <c r="D75" s="85"/>
+      <c r="D75" s="84"/>
       <c r="E75" s="23"/>
-      <c r="F75" s="84"/>
+      <c r="F75" s="83"/>
       <c r="G75" s="25"/>
       <c r="H75" s="76">
         <f t="shared" si="0"/>
@@ -7583,9 +8180,9 @@
         <v>785</v>
       </c>
       <c r="C76" s="29"/>
-      <c r="D76" s="85"/>
+      <c r="D76" s="84"/>
       <c r="E76" s="23"/>
-      <c r="F76" s="83"/>
+      <c r="F76" s="82"/>
       <c r="G76" s="25"/>
       <c r="H76" s="76">
         <f t="shared" si="0"/>
@@ -7599,9 +8196,9 @@
         <v>786</v>
       </c>
       <c r="C77" s="29"/>
-      <c r="D77" s="85"/>
+      <c r="D77" s="84"/>
       <c r="E77" s="23"/>
-      <c r="F77" s="83"/>
+      <c r="F77" s="82"/>
       <c r="G77" s="25"/>
       <c r="H77" s="76">
         <f t="shared" si="0"/>
@@ -7615,9 +8212,9 @@
         <v>787</v>
       </c>
       <c r="C78" s="29"/>
-      <c r="D78" s="85"/>
+      <c r="D78" s="84"/>
       <c r="E78" s="23"/>
-      <c r="F78" s="83"/>
+      <c r="F78" s="82"/>
       <c r="G78" s="25"/>
       <c r="H78" s="76">
         <f t="shared" si="0"/>
@@ -7631,9 +8228,9 @@
         <v>788</v>
       </c>
       <c r="C79" s="29"/>
-      <c r="D79" s="85"/>
+      <c r="D79" s="84"/>
       <c r="E79" s="23"/>
-      <c r="F79" s="83"/>
+      <c r="F79" s="82"/>
       <c r="G79" s="25"/>
       <c r="H79" s="76">
         <f t="shared" si="0"/>
@@ -7647,9 +8244,9 @@
         <v>789</v>
       </c>
       <c r="C80" s="29"/>
-      <c r="D80" s="85"/>
+      <c r="D80" s="84"/>
       <c r="E80" s="23"/>
-      <c r="F80" s="84"/>
+      <c r="F80" s="83"/>
       <c r="G80" s="25"/>
       <c r="H80" s="76">
         <f t="shared" si="0"/>
@@ -7663,9 +8260,9 @@
         <v>790</v>
       </c>
       <c r="C81" s="29"/>
-      <c r="D81" s="85"/>
+      <c r="D81" s="84"/>
       <c r="E81" s="23"/>
-      <c r="F81" s="83"/>
+      <c r="F81" s="82"/>
       <c r="G81" s="25"/>
       <c r="H81" s="76">
         <f t="shared" si="0"/>
@@ -7679,9 +8276,9 @@
         <v>791</v>
       </c>
       <c r="C82" s="29"/>
-      <c r="D82" s="85"/>
+      <c r="D82" s="84"/>
       <c r="E82" s="23"/>
-      <c r="F82" s="84"/>
+      <c r="F82" s="83"/>
       <c r="G82" s="25"/>
       <c r="H82" s="76">
         <f t="shared" si="0"/>
@@ -7695,9 +8292,9 @@
         <v>792</v>
       </c>
       <c r="C83" s="29"/>
-      <c r="D83" s="85"/>
+      <c r="D83" s="84"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="83"/>
+      <c r="F83" s="82"/>
       <c r="G83" s="25"/>
       <c r="H83" s="76">
         <f t="shared" si="0"/>
@@ -7711,9 +8308,9 @@
         <v>793</v>
       </c>
       <c r="C84" s="29"/>
-      <c r="D84" s="85"/>
+      <c r="D84" s="84"/>
       <c r="E84" s="23"/>
-      <c r="F84" s="84"/>
+      <c r="F84" s="83"/>
       <c r="G84" s="25"/>
       <c r="H84" s="76">
         <f t="shared" si="0"/>
@@ -7727,9 +8324,9 @@
         <v>794</v>
       </c>
       <c r="C85" s="29"/>
-      <c r="D85" s="85"/>
+      <c r="D85" s="84"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="83"/>
+      <c r="F85" s="82"/>
       <c r="G85" s="25"/>
       <c r="H85" s="76">
         <f t="shared" si="0"/>
@@ -7743,9 +8340,9 @@
         <v>795</v>
       </c>
       <c r="C86" s="29"/>
-      <c r="D86" s="85"/>
+      <c r="D86" s="84"/>
       <c r="E86" s="23"/>
-      <c r="F86" s="84"/>
+      <c r="F86" s="83"/>
       <c r="G86" s="25"/>
       <c r="H86" s="76">
         <f t="shared" si="0"/>
@@ -7759,9 +8356,9 @@
         <v>796</v>
       </c>
       <c r="C87" s="29"/>
-      <c r="D87" s="85"/>
+      <c r="D87" s="84"/>
       <c r="E87" s="23"/>
-      <c r="F87" s="84"/>
+      <c r="F87" s="83"/>
       <c r="G87" s="25"/>
       <c r="H87" s="76">
         <f t="shared" si="0"/>
@@ -7775,9 +8372,9 @@
         <v>797</v>
       </c>
       <c r="C88" s="29"/>
-      <c r="D88" s="85"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="23"/>
-      <c r="F88" s="88"/>
+      <c r="F88" s="86"/>
       <c r="G88" s="32"/>
       <c r="H88" s="76">
         <f t="shared" si="0"/>
@@ -7791,9 +8388,9 @@
         <v>798</v>
       </c>
       <c r="C89" s="29"/>
-      <c r="D89" s="85"/>
+      <c r="D89" s="84"/>
       <c r="E89" s="23"/>
-      <c r="F89" s="83"/>
+      <c r="F89" s="82"/>
       <c r="G89" s="25"/>
       <c r="H89" s="76">
         <f t="shared" si="0"/>
@@ -7807,9 +8404,9 @@
         <v>799</v>
       </c>
       <c r="C90" s="29"/>
-      <c r="D90" s="85"/>
+      <c r="D90" s="84"/>
       <c r="E90" s="23"/>
-      <c r="F90" s="88"/>
+      <c r="F90" s="86"/>
       <c r="G90" s="32"/>
       <c r="H90" s="76">
         <f t="shared" si="0"/>
@@ -7823,9 +8420,9 @@
         <v>800</v>
       </c>
       <c r="C91" s="29"/>
-      <c r="D91" s="85"/>
+      <c r="D91" s="84"/>
       <c r="E91" s="23"/>
-      <c r="F91" s="83"/>
+      <c r="F91" s="82"/>
       <c r="G91" s="25"/>
       <c r="H91" s="76">
         <f t="shared" si="0"/>
@@ -7839,9 +8436,9 @@
         <v>801</v>
       </c>
       <c r="C92" s="29"/>
-      <c r="D92" s="85"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="23"/>
-      <c r="F92" s="83"/>
+      <c r="F92" s="82"/>
       <c r="G92" s="25"/>
       <c r="H92" s="76">
         <f t="shared" si="0"/>
@@ -7855,9 +8452,9 @@
         <v>802</v>
       </c>
       <c r="C93" s="29"/>
-      <c r="D93" s="85"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="89"/>
+      <c r="F93" s="87"/>
       <c r="G93" s="32"/>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
@@ -7871,9 +8468,9 @@
         <v>803</v>
       </c>
       <c r="C94" s="29"/>
-      <c r="D94" s="85"/>
+      <c r="D94" s="84"/>
       <c r="E94" s="23"/>
-      <c r="F94" s="84"/>
+      <c r="F94" s="83"/>
       <c r="G94" s="25"/>
       <c r="H94" s="76">
         <f t="shared" si="0"/>
@@ -7887,9 +8484,9 @@
         <v>804</v>
       </c>
       <c r="C95" s="29"/>
-      <c r="D95" s="85"/>
+      <c r="D95" s="84"/>
       <c r="E95" s="23"/>
-      <c r="F95" s="88"/>
+      <c r="F95" s="86"/>
       <c r="G95" s="32"/>
       <c r="H95" s="76">
         <f t="shared" si="0"/>
@@ -7903,9 +8500,9 @@
         <v>805</v>
       </c>
       <c r="C96" s="29"/>
-      <c r="D96" s="85"/>
+      <c r="D96" s="84"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="84"/>
+      <c r="F96" s="83"/>
       <c r="G96" s="25"/>
       <c r="H96" s="76">
         <f t="shared" si="0"/>
@@ -7919,9 +8516,9 @@
         <v>806</v>
       </c>
       <c r="C97" s="29"/>
-      <c r="D97" s="85"/>
+      <c r="D97" s="84"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="83"/>
+      <c r="F97" s="82"/>
       <c r="G97" s="25"/>
       <c r="H97" s="76">
         <f t="shared" si="0"/>
@@ -7935,9 +8532,9 @@
         <v>807</v>
       </c>
       <c r="C98" s="29"/>
-      <c r="D98" s="85"/>
+      <c r="D98" s="84"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="83"/>
+      <c r="F98" s="82"/>
       <c r="G98" s="25"/>
       <c r="H98" s="76">
         <f t="shared" si="0"/>
@@ -7951,9 +8548,9 @@
         <v>808</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="D99" s="85"/>
+      <c r="D99" s="84"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="88"/>
+      <c r="F99" s="86"/>
       <c r="G99" s="32"/>
       <c r="H99" s="76">
         <f t="shared" si="0"/>
@@ -7967,9 +8564,9 @@
         <v>809</v>
       </c>
       <c r="C100" s="29"/>
-      <c r="D100" s="85"/>
+      <c r="D100" s="84"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="88"/>
+      <c r="F100" s="86"/>
       <c r="G100" s="32"/>
       <c r="H100" s="76">
         <f t="shared" si="0"/>
@@ -8011,16 +8608,16 @@
       <c r="D103" s="2"/>
       <c r="E103" s="45">
         <f>SUM(E4:E102)</f>
-        <v>4481</v>
+        <v>351556</v>
       </c>
       <c r="F103" s="45"/>
       <c r="G103" s="45">
         <f>SUM(G4:G102)</f>
-        <v>4481</v>
+        <v>319129</v>
       </c>
       <c r="H103" s="78">
         <f>SUM(H4:H102)</f>
-        <v>0</v>
+        <v>32427</v>
       </c>
       <c r="I103" s="2"/>
     </row>
@@ -8062,12 +8659,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="94">
+      <c r="E107" s="92">
         <f>E103-G103</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="95"/>
-      <c r="G107" s="96"/>
+        <v>32427</v>
+      </c>
+      <c r="F107" s="93"/>
+      <c r="G107" s="94"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -8083,11 +8680,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="97" t="s">
+      <c r="E109" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="97"/>
-      <c r="G109" s="97"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -8198,7 +8795,8 @@
     <mergeCell ref="E109:G109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8243,25 +8841,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9286,12 +9884,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="94">
+      <c r="E55" s="92">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="95"/>
-      <c r="G55" s="96"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -9307,11 +9905,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="97" t="s">
+      <c r="E57" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -9453,25 +10051,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10418,12 +11016,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="94">
+      <c r="E52" s="92">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="95"/>
-      <c r="G52" s="96"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -10439,11 +11037,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="97" t="s">
+      <c r="E54" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -10585,25 +11183,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11919,12 +12517,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="94">
+      <c r="E63" s="92">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="95"/>
-      <c r="G63" s="96"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="94"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -11940,11 +12538,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="97" t="s">
+      <c r="E65" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="95"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -12086,25 +12684,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13438,12 +14036,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="94">
+      <c r="E57" s="92">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="95"/>
-      <c r="G57" s="96"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -13459,11 +14057,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="97" t="s">
+      <c r="E59" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -13606,25 +14204,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15417,12 +16015,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="94">
+      <c r="E76" s="92">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="95"/>
-      <c r="G76" s="96"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -15438,11 +16036,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="97" t="s">
+      <c r="E78" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -15584,25 +16182,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17722,12 +18320,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="94">
+      <c r="E87" s="92">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="95"/>
-      <c r="G87" s="96"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="94"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -17743,11 +18341,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="97" t="s">
+      <c r="E89" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97"/>
+      <c r="F89" s="95"/>
+      <c r="G89" s="95"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -17893,25 +18491,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -20336,12 +20934,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="94">
+      <c r="E98" s="92">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="95"/>
-      <c r="G98" s="96"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="94"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -20357,11 +20955,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="97" t="s">
+      <c r="E100" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="97"/>
-      <c r="G100" s="97"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="95"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -20504,25 +21102,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
+      <c r="B2" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -24094,12 +24692,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="94">
+      <c r="E143" s="92">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="95"/>
-      <c r="G143" s="96"/>
+      <c r="F143" s="93"/>
+      <c r="G143" s="94"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -24115,11 +24713,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="97" t="s">
+      <c r="E145" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
+      <c r="F145" s="95"/>
+      <c r="G145" s="95"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="142">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -474,10 +474,49 @@
     <t>12-Nov-22--13-Nov-22</t>
   </si>
   <si>
-    <t>13-Nov-22--14-Nov-22--15-Nov-22</t>
+    <t>14-Nov-22--15-Nov-22</t>
   </si>
   <si>
-    <t>14-Nov-22--15-Nov-22</t>
+    <t>13-Nov-22--14-Nov-22--15-Nov-22--16-Nov-22</t>
+  </si>
+  <si>
+    <t>15-Nov-22--16-Nov-22</t>
+  </si>
+  <si>
+    <t>16-Nov-22--17-Nov-22</t>
+  </si>
+  <si>
+    <t>17-Nov-22--18-Nov-22</t>
+  </si>
+  <si>
+    <t>16-Nov-22--17-Nov-22--19-Nov-22</t>
+  </si>
+  <si>
+    <t>18-Nov-22--19-Nov-22</t>
+  </si>
+  <si>
+    <t>13-Nov-22--20-Nov-22</t>
+  </si>
+  <si>
+    <t>19-Nov-22--20-Nov-22</t>
+  </si>
+  <si>
+    <t>19-Nov-22--21-Nov-22</t>
+  </si>
+  <si>
+    <t>19-Nov-22--20-Nov-22--22-Nov-22</t>
+  </si>
+  <si>
+    <t>21-Nov-22--22-Nov-22</t>
+  </si>
+  <si>
+    <t>22-Nov-22--24-Nov-22</t>
+  </si>
+  <si>
+    <t>20-Nov-22--24-Nov-22</t>
+  </si>
+  <si>
+    <t>22-Nov-22--24-Nov-22--25-Nov-22</t>
   </si>
 </sst>
 </file>
@@ -866,7 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,12 +1096,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1087,7 +1121,6 @@
     <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1342,13 +1375,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1395,13 +1428,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2623,25 +2656,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3389,12 +3422,12 @@
       <c r="B45" s="43"/>
       <c r="C45" s="44"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="92">
+      <c r="E45" s="91">
         <f>E41-G41</f>
         <v>0</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="94"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="93"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3410,11 +3443,11 @@
       <c r="B47" s="43"/>
       <c r="C47" s="44"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="95" t="s">
+      <c r="E47" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3559,25 +3592,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6242,12 +6275,12 @@
       <c r="B107" s="43"/>
       <c r="C107" s="44"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="92">
+      <c r="E107" s="91">
         <f>E103-G103</f>
         <v>0</v>
       </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="94"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="93"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6263,11 +6296,11 @@
       <c r="B109" s="43"/>
       <c r="C109" s="44"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="95" t="s">
+      <c r="E109" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
+      <c r="F109" s="94"/>
+      <c r="G109" s="94"/>
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -6388,13 +6421,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6413,25 +6446,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="74"/>
       <c r="I2" s="2"/>
@@ -6469,7 +6502,7 @@
         <v>713</v>
       </c>
       <c r="C4" s="16"/>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="86" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="18">
@@ -6482,7 +6515,7 @@
         <v>4481</v>
       </c>
       <c r="H4" s="76">
-        <f t="shared" ref="H4:H102" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H119" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -7482,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>44876</v>
       </c>
@@ -7498,15 +7531,15 @@
         <v>14370</v>
       </c>
       <c r="F43" s="82" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" s="25">
-        <f>2500+4000+4000</f>
-        <v>10500</v>
+        <f>2500+4000+4000+3870</f>
+        <v>14370</v>
       </c>
       <c r="H43" s="76">
         <f t="shared" si="0"/>
-        <v>3870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -7604,7 +7637,7 @@
         <v>3906</v>
       </c>
       <c r="F47" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="25">
         <f>3406+500</f>
@@ -7693,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>44878</v>
       </c>
@@ -7708,14 +7741,19 @@
       <c r="E51" s="23">
         <v>14307</v>
       </c>
-      <c r="F51" s="83"/>
-      <c r="G51" s="25"/>
+      <c r="F51" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="25">
+        <f>2530+3500+8277</f>
+        <v>14307</v>
+      </c>
       <c r="H51" s="76">
         <f t="shared" si="0"/>
-        <v>14307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>44878</v>
       </c>
@@ -7730,15 +7768,16 @@
       <c r="E52" s="23">
         <v>24200</v>
       </c>
-      <c r="F52" s="83">
-        <v>44878</v>
+      <c r="F52" s="82" t="s">
+        <v>134</v>
       </c>
       <c r="G52" s="25">
-        <v>20000</v>
+        <f>20000+4200</f>
+        <v>24200</v>
       </c>
       <c r="H52" s="76">
         <f t="shared" si="0"/>
-        <v>4200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -7834,11 +7873,15 @@
       <c r="E56" s="23">
         <v>281</v>
       </c>
-      <c r="F56" s="82"/>
-      <c r="G56" s="25"/>
+      <c r="F56" s="82">
+        <v>44883</v>
+      </c>
+      <c r="G56" s="25">
+        <v>281</v>
+      </c>
       <c r="H56" s="76">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7856,14 +7899,18 @@
       <c r="E57" s="23">
         <v>5079</v>
       </c>
-      <c r="F57" s="83"/>
-      <c r="G57" s="25"/>
+      <c r="F57" s="83">
+        <v>44880</v>
+      </c>
+      <c r="G57" s="25">
+        <v>5079</v>
+      </c>
       <c r="H57" s="76">
         <f t="shared" si="0"/>
-        <v>5079</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>44879</v>
       </c>
@@ -7878,11 +7925,16 @@
       <c r="E58" s="23">
         <v>2565</v>
       </c>
-      <c r="F58" s="83"/>
-      <c r="G58" s="25"/>
+      <c r="F58" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="25">
+        <f>2200+365</f>
+        <v>2565</v>
+      </c>
       <c r="H58" s="76">
         <f t="shared" si="0"/>
-        <v>2565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7926,873 +7978,1568 @@
       <c r="E60" s="23">
         <v>2125</v>
       </c>
-      <c r="F60" s="82"/>
-      <c r="G60" s="25"/>
+      <c r="F60" s="82">
+        <v>44881</v>
+      </c>
+      <c r="G60" s="25">
+        <v>2125</v>
+      </c>
       <c r="H60" s="76">
         <f t="shared" si="0"/>
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>44880</v>
+      </c>
       <c r="B61" s="15">
         <f t="shared" si="1"/>
         <v>770</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="25"/>
+      <c r="D61" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="23">
+        <v>1891</v>
+      </c>
+      <c r="F61" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="25">
+        <f>1400+491</f>
+        <v>1891</v>
+      </c>
       <c r="H61" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14">
+        <v>44880</v>
+      </c>
       <c r="B62" s="15">
         <f t="shared" si="1"/>
         <v>771</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="25"/>
+      <c r="D62" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="23">
+        <v>2541</v>
+      </c>
+      <c r="F62" s="82">
+        <v>44882</v>
+      </c>
+      <c r="G62" s="25">
+        <v>2541</v>
+      </c>
       <c r="H62" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14">
+        <v>44880</v>
+      </c>
       <c r="B63" s="15">
         <f t="shared" si="1"/>
         <v>772</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="25"/>
+      <c r="D63" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="23">
+        <v>2559</v>
+      </c>
+      <c r="F63" s="82">
+        <v>44881</v>
+      </c>
+      <c r="G63" s="25">
+        <v>2559</v>
+      </c>
       <c r="H63" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+    <row r="64" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>44880</v>
+      </c>
       <c r="B64" s="15">
         <f t="shared" si="1"/>
         <v>773</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="25"/>
+      <c r="D64" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="23">
+        <v>10597</v>
+      </c>
+      <c r="F64" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="25">
+        <f>10000+597</f>
+        <v>10597</v>
+      </c>
       <c r="H64" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
+      <c r="A65" s="26">
+        <v>44881</v>
+      </c>
       <c r="B65" s="15">
         <f t="shared" si="1"/>
         <v>774</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="25"/>
+      <c r="D65" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="23">
+        <v>2477</v>
+      </c>
+      <c r="F65" s="82">
+        <v>44883</v>
+      </c>
+      <c r="G65" s="25">
+        <v>2477</v>
+      </c>
       <c r="H65" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
+    <row r="66" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="26">
+        <v>44881</v>
+      </c>
       <c r="B66" s="15">
         <f t="shared" si="1"/>
         <v>775</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="25"/>
+      <c r="D66" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="23">
+        <v>19085</v>
+      </c>
+      <c r="F66" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="25">
+        <f>10000+3000+6085</f>
+        <v>19085</v>
+      </c>
       <c r="H66" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
+      <c r="A67" s="26">
+        <v>44881</v>
+      </c>
       <c r="B67" s="15">
         <f t="shared" si="1"/>
         <v>776</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="25"/>
+      <c r="D67" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="23">
+        <v>6676</v>
+      </c>
+      <c r="F67" s="82">
+        <v>44882</v>
+      </c>
+      <c r="G67" s="25">
+        <v>6676</v>
+      </c>
       <c r="H67" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
+      <c r="A68" s="26">
+        <v>44882</v>
+      </c>
       <c r="B68" s="15">
         <f t="shared" si="1"/>
         <v>777</v>
       </c>
       <c r="C68" s="29"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="25"/>
+      <c r="D68" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="23">
+        <v>2399</v>
+      </c>
+      <c r="F68" s="82">
+        <v>44883</v>
+      </c>
+      <c r="G68" s="25">
+        <v>2399</v>
+      </c>
       <c r="H68" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
+      <c r="A69" s="26">
+        <v>44882</v>
+      </c>
       <c r="B69" s="15">
         <f t="shared" si="1"/>
         <v>778</v>
       </c>
       <c r="C69" s="29"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="25"/>
+      <c r="D69" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="23">
+        <v>5494</v>
+      </c>
+      <c r="F69" s="82">
+        <v>44884</v>
+      </c>
+      <c r="G69" s="25">
+        <v>5494</v>
+      </c>
       <c r="H69" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
+    <row r="70" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="26">
+        <v>44882</v>
+      </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B100" si="2">B69+1</f>
+        <f t="shared" ref="B70:B117" si="2">B69+1</f>
         <v>779</v>
       </c>
       <c r="C70" s="29"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="25"/>
+      <c r="D70" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="23">
+        <v>3650</v>
+      </c>
+      <c r="F70" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="25">
+        <f>1650+2000</f>
+        <v>3650</v>
+      </c>
       <c r="H70" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
+      <c r="A71" s="26">
+        <v>44882</v>
+      </c>
       <c r="B71" s="15">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
       <c r="C71" s="29"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="82"/>
-      <c r="G71" s="25"/>
+      <c r="D71" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="23">
+        <v>18126</v>
+      </c>
+      <c r="F71" s="82">
+        <v>44883</v>
+      </c>
+      <c r="G71" s="25">
+        <v>18126</v>
+      </c>
       <c r="H71" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
+      <c r="A72" s="26">
+        <v>44882</v>
+      </c>
       <c r="B72" s="15">
         <f t="shared" si="2"/>
         <v>781</v>
       </c>
       <c r="C72" s="29"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="25"/>
+      <c r="D72" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="23">
+        <v>7581</v>
+      </c>
+      <c r="F72" s="83">
+        <v>44883</v>
+      </c>
+      <c r="G72" s="25">
+        <v>7581</v>
+      </c>
       <c r="H72" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
+      <c r="A73" s="26">
+        <v>44882</v>
+      </c>
       <c r="B73" s="15">
         <f t="shared" si="2"/>
         <v>782</v>
       </c>
       <c r="C73" s="29"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="25"/>
+      <c r="D73" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="23">
+        <v>2884</v>
+      </c>
+      <c r="F73" s="83">
+        <v>44883</v>
+      </c>
+      <c r="G73" s="25">
+        <v>2884</v>
+      </c>
       <c r="H73" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="26"/>
+    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="26">
+        <v>44883</v>
+      </c>
       <c r="B74" s="15">
         <f t="shared" si="2"/>
         <v>783</v>
       </c>
       <c r="C74" s="29"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="25"/>
+      <c r="D74" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="23">
+        <v>2876</v>
+      </c>
+      <c r="F74" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="G74" s="25">
+        <f>1876+1000</f>
+        <v>2876</v>
+      </c>
       <c r="H74" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
+      <c r="A75" s="26">
+        <v>44883</v>
+      </c>
       <c r="B75" s="15">
         <f t="shared" si="2"/>
         <v>784</v>
       </c>
       <c r="C75" s="29"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="25"/>
+      <c r="D75" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="23">
+        <v>5023</v>
+      </c>
+      <c r="F75" s="83">
+        <v>44884</v>
+      </c>
+      <c r="G75" s="25">
+        <v>5023</v>
+      </c>
       <c r="H75" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
+      <c r="A76" s="26">
+        <v>44883</v>
+      </c>
       <c r="B76" s="15">
         <f t="shared" si="2"/>
         <v>785</v>
       </c>
       <c r="C76" s="29"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="25"/>
+      <c r="D76" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="23">
+        <v>1409</v>
+      </c>
+      <c r="F76" s="82">
+        <v>44884</v>
+      </c>
+      <c r="G76" s="25">
+        <v>1409</v>
+      </c>
       <c r="H76" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="26"/>
+      <c r="A77" s="26">
+        <v>44883</v>
+      </c>
       <c r="B77" s="15">
         <f t="shared" si="2"/>
         <v>786</v>
       </c>
       <c r="C77" s="29"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="25"/>
+      <c r="D77" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="23">
+        <v>11370</v>
+      </c>
+      <c r="F77" s="82">
+        <v>44884</v>
+      </c>
+      <c r="G77" s="25">
+        <v>11370</v>
+      </c>
       <c r="H77" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="26">
+        <v>44884</v>
+      </c>
       <c r="B78" s="15">
         <f t="shared" si="2"/>
         <v>787</v>
       </c>
       <c r="C78" s="29"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="25"/>
+      <c r="D78" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="23">
+        <v>8893</v>
+      </c>
+      <c r="F78" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="25">
+        <f>8400+493</f>
+        <v>8893</v>
+      </c>
       <c r="H78" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
+    <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="26">
+        <v>44884</v>
+      </c>
       <c r="B79" s="15">
         <f t="shared" si="2"/>
         <v>788</v>
       </c>
       <c r="C79" s="29"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="25"/>
+      <c r="D79" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="23">
+        <v>17823</v>
+      </c>
+      <c r="F79" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="25">
+        <f>4950+3500+5000</f>
+        <v>13450</v>
+      </c>
       <c r="H79" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="26"/>
+      <c r="A80" s="26">
+        <v>44884</v>
+      </c>
       <c r="B80" s="15">
         <f t="shared" si="2"/>
         <v>789</v>
       </c>
       <c r="C80" s="29"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="25"/>
+      <c r="D80" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="23">
+        <v>7447</v>
+      </c>
+      <c r="F80" s="83">
+        <v>44885</v>
+      </c>
+      <c r="G80" s="25">
+        <v>7447</v>
+      </c>
       <c r="H80" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
+      <c r="A81" s="26">
+        <v>44884</v>
+      </c>
       <c r="B81" s="15">
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
       <c r="C81" s="29"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="25"/>
+      <c r="D81" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="23">
+        <v>7127</v>
+      </c>
+      <c r="F81" s="82">
+        <v>44885</v>
+      </c>
+      <c r="G81" s="25">
+        <v>7127</v>
+      </c>
       <c r="H81" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
+      <c r="A82" s="26">
+        <v>44884</v>
+      </c>
       <c r="B82" s="15">
         <f t="shared" si="2"/>
         <v>791</v>
       </c>
       <c r="C82" s="29"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="25"/>
+      <c r="D82" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="23">
+        <v>12737</v>
+      </c>
+      <c r="F82" s="83">
+        <v>44885</v>
+      </c>
+      <c r="G82" s="25">
+        <v>12737</v>
+      </c>
       <c r="H82" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
+    <row r="83" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="26">
+        <v>44884</v>
+      </c>
       <c r="B83" s="15">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
       <c r="C83" s="29"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="25"/>
+      <c r="D83" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="23">
+        <v>10590</v>
+      </c>
+      <c r="F83" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="G83" s="25">
+        <f>9700+890</f>
+        <v>10590</v>
+      </c>
       <c r="H83" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="26"/>
+    <row r="84" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="26">
+        <v>44885</v>
+      </c>
       <c r="B84" s="15">
         <f t="shared" si="2"/>
         <v>793</v>
       </c>
       <c r="C84" s="29"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="25"/>
+      <c r="D84" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="23">
+        <v>20370</v>
+      </c>
+      <c r="F84" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="25">
+        <f>11800+8570</f>
+        <v>20370</v>
+      </c>
       <c r="H84" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
+      <c r="A85" s="26">
+        <v>44885</v>
+      </c>
       <c r="B85" s="15">
         <f t="shared" si="2"/>
         <v>794</v>
       </c>
       <c r="C85" s="29"/>
-      <c r="D85" s="84"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="25"/>
+      <c r="D85" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="23">
+        <v>7138</v>
+      </c>
+      <c r="F85" s="82">
+        <v>44887</v>
+      </c>
+      <c r="G85" s="25">
+        <v>7138</v>
+      </c>
       <c r="H85" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
+      <c r="A86" s="26">
+        <v>44885</v>
+      </c>
       <c r="B86" s="15">
         <f t="shared" si="2"/>
         <v>795</v>
       </c>
       <c r="C86" s="29"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="25"/>
+      <c r="D86" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="23">
+        <v>8787</v>
+      </c>
+      <c r="F86" s="83">
+        <v>44886</v>
+      </c>
+      <c r="G86" s="25">
+        <v>8787</v>
+      </c>
       <c r="H86" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
+    <row r="87" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
+        <v>44886</v>
+      </c>
       <c r="B87" s="15">
         <f t="shared" si="2"/>
         <v>796</v>
       </c>
       <c r="C87" s="29"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="25"/>
+      <c r="D87" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="23">
+        <v>5858</v>
+      </c>
+      <c r="F87" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="25">
+        <f>2200+2000+1658</f>
+        <v>5858</v>
+      </c>
       <c r="H87" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
+      <c r="A88" s="26">
+        <v>44886</v>
+      </c>
       <c r="B88" s="15">
         <f t="shared" si="2"/>
         <v>797</v>
       </c>
       <c r="C88" s="29"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="32"/>
+      <c r="D88" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="23">
+        <v>5904</v>
+      </c>
+      <c r="F88" s="83">
+        <v>44887</v>
+      </c>
+      <c r="G88" s="25">
+        <v>5904</v>
+      </c>
       <c r="H88" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
+      <c r="A89" s="26">
+        <v>44887</v>
+      </c>
       <c r="B89" s="15">
         <f t="shared" si="2"/>
         <v>798</v>
       </c>
       <c r="C89" s="29"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="23"/>
+      <c r="D89" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="23">
+        <v>355</v>
+      </c>
       <c r="F89" s="82"/>
       <c r="G89" s="25"/>
       <c r="H89" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
+      <c r="A90" s="26">
+        <v>44887</v>
+      </c>
       <c r="B90" s="15">
         <f t="shared" si="2"/>
         <v>799</v>
       </c>
       <c r="C90" s="29"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="32"/>
+      <c r="D90" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="23">
+        <v>118</v>
+      </c>
+      <c r="F90" s="83"/>
+      <c r="G90" s="25"/>
       <c r="H90" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="26">
+        <v>44887</v>
+      </c>
       <c r="B91" s="15">
         <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="C91" s="29"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="25"/>
+      <c r="D91" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="23">
+        <v>5706</v>
+      </c>
+      <c r="F91" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" s="25">
+        <f>5406+300</f>
+        <v>5706</v>
+      </c>
       <c r="H91" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
+      <c r="A92" s="26">
+        <v>44887</v>
+      </c>
       <c r="B92" s="15">
         <f t="shared" si="2"/>
         <v>801</v>
       </c>
       <c r="C92" s="29"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="25"/>
+      <c r="D92" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="23">
+        <v>2401</v>
+      </c>
+      <c r="F92" s="82">
+        <v>44890</v>
+      </c>
+      <c r="G92" s="25">
+        <v>2401</v>
+      </c>
       <c r="H92" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
+      <c r="A93" s="26">
+        <v>44887</v>
+      </c>
       <c r="B93" s="15">
         <f t="shared" si="2"/>
         <v>802</v>
       </c>
       <c r="C93" s="29"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="32"/>
+      <c r="D93" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="23">
+        <v>18374</v>
+      </c>
+      <c r="F93" s="82"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18374</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="26"/>
+      <c r="A94" s="26">
+        <v>44887</v>
+      </c>
       <c r="B94" s="15">
         <f t="shared" si="2"/>
         <v>803</v>
       </c>
       <c r="C94" s="29"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="25"/>
+      <c r="D94" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="23">
+        <v>5829</v>
+      </c>
+      <c r="F94" s="83">
+        <v>44887</v>
+      </c>
+      <c r="G94" s="25">
+        <v>5829</v>
+      </c>
       <c r="H94" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="26"/>
+      <c r="A95" s="26">
+        <v>44888</v>
+      </c>
       <c r="B95" s="15">
         <f t="shared" si="2"/>
         <v>804</v>
       </c>
       <c r="C95" s="29"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="86"/>
-      <c r="G95" s="32"/>
+      <c r="D95" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="23">
+        <v>4971</v>
+      </c>
+      <c r="F95" s="83">
+        <v>44889</v>
+      </c>
+      <c r="G95" s="25">
+        <v>4971</v>
+      </c>
       <c r="H95" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
+      <c r="A96" s="26">
+        <v>44889</v>
+      </c>
       <c r="B96" s="15">
         <f t="shared" si="2"/>
         <v>805</v>
       </c>
       <c r="C96" s="29"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="23"/>
+      <c r="D96" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="23">
+        <v>3139</v>
+      </c>
       <c r="F96" s="83"/>
       <c r="G96" s="25"/>
       <c r="H96" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="26">
+        <v>44889</v>
+      </c>
       <c r="B97" s="15">
         <f t="shared" si="2"/>
         <v>806</v>
       </c>
       <c r="C97" s="29"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="25"/>
+      <c r="D97" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="23">
+        <v>5844</v>
+      </c>
+      <c r="F97" s="82">
+        <v>44890</v>
+      </c>
+      <c r="G97" s="25">
+        <v>5844</v>
+      </c>
       <c r="H97" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="26"/>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="26">
+        <v>44889</v>
+      </c>
       <c r="B98" s="15">
         <f t="shared" si="2"/>
         <v>807</v>
       </c>
       <c r="C98" s="29"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="25"/>
+      <c r="D98" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E98" s="23">
+        <v>12000</v>
+      </c>
+      <c r="F98" s="82">
+        <v>44890</v>
+      </c>
+      <c r="G98" s="25">
+        <v>12000</v>
+      </c>
       <c r="H98" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="26"/>
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26">
+        <v>44889</v>
+      </c>
       <c r="B99" s="15">
         <f t="shared" si="2"/>
         <v>808</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="86"/>
-      <c r="G99" s="32"/>
+      <c r="D99" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="23">
+        <v>4692</v>
+      </c>
+      <c r="F99" s="83">
+        <v>44890</v>
+      </c>
+      <c r="G99" s="25">
+        <v>4692</v>
+      </c>
       <c r="H99" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26"/>
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="26">
+        <v>44890</v>
+      </c>
       <c r="B100" s="15">
         <f t="shared" si="2"/>
         <v>809</v>
       </c>
       <c r="C100" s="29"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="86"/>
-      <c r="G100" s="32"/>
+      <c r="D100" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="23">
+        <v>3161</v>
+      </c>
+      <c r="F100" s="83"/>
+      <c r="G100" s="25"/>
       <c r="H100" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="26"/>
-      <c r="B101" s="15"/>
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="26">
+        <v>44890</v>
+      </c>
+      <c r="B101" s="15">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
       <c r="C101" s="29"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="24"/>
+      <c r="D101" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="23">
+        <v>6641</v>
+      </c>
+      <c r="F101" s="83"/>
       <c r="G101" s="25"/>
       <c r="H101" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="35"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39">
-        <v>0</v>
-      </c>
-      <c r="F102" s="40"/>
-      <c r="G102" s="41"/>
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="26">
+        <v>44890</v>
+      </c>
+      <c r="B102" s="15">
+        <f t="shared" si="2"/>
+        <v>811</v>
+      </c>
+      <c r="C102" s="29"/>
+      <c r="D102" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="23">
+        <v>11160</v>
+      </c>
+      <c r="F102" s="83">
+        <v>44890</v>
+      </c>
+      <c r="G102" s="25">
+        <v>10000</v>
+      </c>
       <c r="H102" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="43"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="45">
-        <f>SUM(E4:E102)</f>
-        <v>351556</v>
-      </c>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45">
-        <f>SUM(G4:G102)</f>
-        <v>319129</v>
-      </c>
-      <c r="H103" s="78">
-        <f>SUM(H4:H102)</f>
-        <v>32427</v>
-      </c>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="43"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="79"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B105" s="43"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="48"/>
-      <c r="G105" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" s="79"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="43"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="79"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="43"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="92">
-        <f>E103-G103</f>
-        <v>32427</v>
-      </c>
-      <c r="F107" s="93"/>
-      <c r="G107" s="94"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="43"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="49"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="43"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="49"/>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="26">
+        <v>44890</v>
+      </c>
+      <c r="B103" s="15">
+        <f t="shared" si="2"/>
+        <v>812</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="23">
+        <v>7987</v>
+      </c>
+      <c r="F103" s="83"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="76">
+        <f t="shared" si="0"/>
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="26">
+        <v>44890</v>
+      </c>
+      <c r="B104" s="15">
+        <f t="shared" si="2"/>
+        <v>813</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="23">
+        <v>751</v>
+      </c>
+      <c r="F104" s="83"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="76">
+        <f t="shared" si="0"/>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="26"/>
+      <c r="B105" s="15">
+        <f t="shared" si="2"/>
+        <v>814</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="84"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="26"/>
+      <c r="B106" s="15">
+        <f t="shared" si="2"/>
+        <v>815</v>
+      </c>
+      <c r="C106" s="29"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="26"/>
+      <c r="B107" s="15">
+        <f t="shared" si="2"/>
+        <v>816</v>
+      </c>
+      <c r="C107" s="29"/>
+      <c r="D107" s="84"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="26"/>
+      <c r="B108" s="15">
+        <f t="shared" si="2"/>
+        <v>817</v>
+      </c>
+      <c r="C108" s="29"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="26"/>
+      <c r="B109" s="15">
+        <f t="shared" si="2"/>
+        <v>818</v>
+      </c>
+      <c r="C109" s="29"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="26"/>
+      <c r="B110" s="15">
+        <f t="shared" si="2"/>
+        <v>819</v>
+      </c>
+      <c r="C110" s="29"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
-      <c r="B111" s="15"/>
+      <c r="B111" s="15">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
       <c r="C111" s="29"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="54"/>
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="43"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="49"/>
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="43"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="49"/>
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="43"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="49"/>
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="43"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="49"/>
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="43"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="49"/>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="43"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="49"/>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="43"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="49"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="43"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="49"/>
+      <c r="D111" s="84"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+      <c r="B112" s="15">
+        <f t="shared" si="2"/>
+        <v>821</v>
+      </c>
+      <c r="C112" s="29"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="26"/>
+      <c r="B113" s="15">
+        <f t="shared" si="2"/>
+        <v>822</v>
+      </c>
+      <c r="C113" s="29"/>
+      <c r="D113" s="84"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="26"/>
+      <c r="B114" s="15">
+        <f t="shared" si="2"/>
+        <v>823</v>
+      </c>
+      <c r="C114" s="29"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="26"/>
+      <c r="B115" s="15">
+        <f t="shared" si="2"/>
+        <v>824</v>
+      </c>
+      <c r="C115" s="29"/>
+      <c r="D115" s="84"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="26"/>
+      <c r="B116" s="15">
+        <f t="shared" si="2"/>
+        <v>825</v>
+      </c>
+      <c r="C116" s="29"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="26"/>
+      <c r="B117" s="15">
+        <f t="shared" si="2"/>
+        <v>826</v>
+      </c>
+      <c r="C117" s="29"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="26"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="35"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="39">
+        <v>0</v>
+      </c>
+      <c r="F119" s="40"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B120" s="43"/>
       <c r="C120" s="44"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="49"/>
+      <c r="E120" s="45">
+        <f>SUM(E4:E119)</f>
+        <v>663997</v>
+      </c>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45">
+        <f>SUM(G4:G119)</f>
+        <v>617938</v>
+      </c>
+      <c r="H120" s="78">
+        <f>SUM(H4:H119)</f>
+        <v>46059</v>
+      </c>
       <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="43"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="79"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B122" s="43"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="48"/>
+      <c r="G122" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="79"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="43"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="52"/>
+      <c r="H123" s="79"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B124" s="43"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="91">
+        <f>E120-G120</f>
+        <v>46059</v>
+      </c>
+      <c r="F124" s="92"/>
+      <c r="G124" s="93"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="43"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="49"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B126" s="43"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="94"/>
+      <c r="G126" s="94"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="43"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="49"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" s="26"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="54"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="43"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="49"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="43"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="49"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="43"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="49"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="43"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="49"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="43"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="47"/>
+      <c r="F133" s="48"/>
+      <c r="G133" s="49"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="43"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="48"/>
+      <c r="G134" s="49"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="43"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="49"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="43"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="48"/>
+      <c r="G136" s="49"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="43"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="49"/>
+      <c r="I137" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="E126:G126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8841,25 +9588,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9884,12 +10631,12 @@
       <c r="B55" s="43"/>
       <c r="C55" s="44"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="92">
+      <c r="E55" s="91">
         <f>E51-G51</f>
         <v>0</v>
       </c>
-      <c r="F55" s="93"/>
-      <c r="G55" s="94"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="93"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -9905,11 +10652,11 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="95" t="s">
+      <c r="E57" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -10051,25 +10798,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11016,12 +11763,12 @@
       <c r="B52" s="43"/>
       <c r="C52" s="44"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="92">
+      <c r="E52" s="91">
         <f>E48-G48</f>
         <v>0</v>
       </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="93"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -11037,11 +11784,11 @@
       <c r="B54" s="43"/>
       <c r="C54" s="44"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="95" t="s">
+      <c r="E54" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -11183,25 +11930,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12517,12 +13264,12 @@
       <c r="B63" s="43"/>
       <c r="C63" s="44"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="92">
+      <c r="E63" s="91">
         <f>E59-G59</f>
         <v>0</v>
       </c>
-      <c r="F63" s="93"/>
-      <c r="G63" s="94"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="93"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -12538,11 +13285,11 @@
       <c r="B65" s="43"/>
       <c r="C65" s="44"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="95" t="s">
+      <c r="E65" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="95"/>
-      <c r="G65" s="95"/>
+      <c r="F65" s="94"/>
+      <c r="G65" s="94"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -12684,25 +13431,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14036,12 +14783,12 @@
       <c r="B57" s="43"/>
       <c r="C57" s="44"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="92">
+      <c r="E57" s="91">
         <f>E53-G53</f>
         <v>0</v>
       </c>
-      <c r="F57" s="93"/>
-      <c r="G57" s="94"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="93"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -14057,11 +14804,11 @@
       <c r="B59" s="43"/>
       <c r="C59" s="44"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="95" t="s">
+      <c r="E59" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -14204,25 +14951,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16015,12 +16762,12 @@
       <c r="B76" s="43"/>
       <c r="C76" s="44"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="92">
+      <c r="E76" s="91">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="93"/>
-      <c r="G76" s="94"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="93"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -16036,11 +16783,11 @@
       <c r="B78" s="43"/>
       <c r="C78" s="44"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="95" t="s">
+      <c r="E78" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -16182,25 +16929,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18320,12 +19067,12 @@
       <c r="B87" s="43"/>
       <c r="C87" s="44"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="92">
+      <c r="E87" s="91">
         <f>E83-G83</f>
         <v>0</v>
       </c>
-      <c r="F87" s="93"/>
-      <c r="G87" s="94"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="93"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -18341,11 +19088,11 @@
       <c r="B89" s="43"/>
       <c r="C89" s="44"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="95" t="s">
+      <c r="E89" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="95"/>
-      <c r="G89" s="95"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="94"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -18491,25 +19238,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -20934,12 +21681,12 @@
       <c r="B98" s="43"/>
       <c r="C98" s="44"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="92">
+      <c r="E98" s="91">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="93"/>
-      <c r="G98" s="94"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="93"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -20955,11 +21702,11 @@
       <c r="B100" s="43"/>
       <c r="C100" s="44"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="95" t="s">
+      <c r="E100" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
+      <c r="F100" s="94"/>
+      <c r="G100" s="94"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -21102,25 +21849,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -24692,12 +25439,12 @@
       <c r="B143" s="43"/>
       <c r="C143" s="44"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="92">
+      <c r="E143" s="91">
         <f>E139-G139</f>
         <v>0</v>
       </c>
-      <c r="F143" s="93"/>
-      <c r="G143" s="94"/>
+      <c r="F143" s="92"/>
+      <c r="G143" s="93"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -24713,11 +25460,11 @@
       <c r="B145" s="43"/>
       <c r="C145" s="44"/>
       <c r="D145" s="2"/>
-      <c r="E145" s="95" t="s">
+      <c r="E145" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="95"/>
-      <c r="G145" s="95"/>
+      <c r="F145" s="94"/>
+      <c r="G145" s="94"/>
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #11 NOVIEMBRE 2022/CREDITOS  ABASTOS  HERRADURA   NOVIEMBRE  2022.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="145">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>22-Nov-22--24-Nov-22--25-Nov-22</t>
+  </si>
+  <si>
+    <t>22-Nov-22--24-Nov-22--25-Nov-22--26-Nov-22</t>
+  </si>
+  <si>
+    <t>25-Nov-22--27-Nov-22</t>
+  </si>
+  <si>
+    <t>27-Nov-22--</t>
   </si>
 </sst>
 </file>
@@ -1375,13 +1384,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1428,13 +1437,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6421,13 +6430,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
+      <selection pane="bottomRight" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6515,7 +6524,7 @@
         <v>4481</v>
       </c>
       <c r="H4" s="76">
-        <f t="shared" ref="H4:H119" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H116" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
@@ -8231,7 +8240,7 @@
         <v>44882</v>
       </c>
       <c r="B70" s="15">
-        <f t="shared" ref="B70:B117" si="2">B69+1</f>
+        <f t="shared" ref="B70:B114" si="2">B69+1</f>
         <v>779</v>
       </c>
       <c r="C70" s="29"/>
@@ -8463,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="26">
         <v>44884</v>
       </c>
@@ -8479,15 +8488,15 @@
         <v>17823</v>
       </c>
       <c r="F79" s="82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G79" s="25">
-        <f>4950+3500+5000</f>
-        <v>13450</v>
+        <f>4950+3500+5000+4373</f>
+        <v>17823</v>
       </c>
       <c r="H79" s="76">
         <f t="shared" si="0"/>
-        <v>4373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,11 +8751,15 @@
       <c r="E89" s="23">
         <v>355</v>
       </c>
-      <c r="F89" s="82"/>
-      <c r="G89" s="25"/>
+      <c r="F89" s="82">
+        <v>44891</v>
+      </c>
+      <c r="G89" s="25">
+        <v>355</v>
+      </c>
       <c r="H89" s="76">
         <f t="shared" si="0"/>
-        <v>355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8764,11 +8777,15 @@
       <c r="E90" s="23">
         <v>118</v>
       </c>
-      <c r="F90" s="83"/>
-      <c r="G90" s="25"/>
+      <c r="F90" s="83">
+        <v>44891</v>
+      </c>
+      <c r="G90" s="25">
+        <v>118</v>
+      </c>
       <c r="H90" s="76">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -8839,11 +8856,16 @@
       <c r="E93" s="23">
         <v>18374</v>
       </c>
-      <c r="F93" s="82"/>
-      <c r="G93" s="25"/>
+      <c r="F93" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="62">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
       <c r="H93" s="76">
         <f t="shared" si="0"/>
-        <v>18374</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8913,11 +8935,15 @@
       <c r="E96" s="23">
         <v>3139</v>
       </c>
-      <c r="F96" s="83"/>
-      <c r="G96" s="25"/>
+      <c r="F96" s="83">
+        <v>44891</v>
+      </c>
+      <c r="G96" s="25">
+        <v>3139</v>
+      </c>
       <c r="H96" s="76">
         <f t="shared" si="0"/>
-        <v>3139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -9013,11 +9039,15 @@
       <c r="E100" s="23">
         <v>3161</v>
       </c>
-      <c r="F100" s="83"/>
-      <c r="G100" s="25"/>
+      <c r="F100" s="83">
+        <v>44892</v>
+      </c>
+      <c r="G100" s="25">
+        <v>3161</v>
+      </c>
       <c r="H100" s="76">
         <f t="shared" si="0"/>
-        <v>3161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9035,14 +9065,18 @@
       <c r="E101" s="23">
         <v>6641</v>
       </c>
-      <c r="F101" s="83"/>
-      <c r="G101" s="25"/>
+      <c r="F101" s="83">
+        <v>44892</v>
+      </c>
+      <c r="G101" s="25">
+        <v>6641</v>
+      </c>
       <c r="H101" s="76">
         <f t="shared" si="0"/>
-        <v>6641</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="26">
         <v>44890</v>
       </c>
@@ -9057,15 +9091,16 @@
       <c r="E102" s="23">
         <v>11160</v>
       </c>
-      <c r="F102" s="83">
-        <v>44890</v>
+      <c r="F102" s="82" t="s">
+        <v>143</v>
       </c>
       <c r="G102" s="25">
-        <v>10000</v>
+        <f>10000+1160</f>
+        <v>11160</v>
       </c>
       <c r="H102" s="76">
         <f t="shared" si="0"/>
-        <v>1160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9083,11 +9118,15 @@
       <c r="E103" s="23">
         <v>7987</v>
       </c>
-      <c r="F103" s="83"/>
-      <c r="G103" s="25"/>
+      <c r="F103" s="83">
+        <v>44891</v>
+      </c>
+      <c r="G103" s="25">
+        <v>7987</v>
+      </c>
       <c r="H103" s="76">
         <f t="shared" si="0"/>
-        <v>7987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9105,333 +9144,385 @@
       <c r="E104" s="23">
         <v>751</v>
       </c>
-      <c r="F104" s="83"/>
-      <c r="G104" s="25"/>
+      <c r="F104" s="83">
+        <v>44892</v>
+      </c>
+      <c r="G104" s="25">
+        <v>751</v>
+      </c>
       <c r="H104" s="76">
         <f t="shared" si="0"/>
-        <v>751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
+      <c r="A105" s="26">
+        <v>44891</v>
+      </c>
       <c r="B105" s="15">
         <f t="shared" si="2"/>
         <v>814</v>
       </c>
       <c r="C105" s="29"/>
-      <c r="D105" s="84"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="25"/>
+      <c r="D105" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="23">
+        <v>4592</v>
+      </c>
+      <c r="F105" s="61"/>
+      <c r="G105" s="62"/>
       <c r="H105" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26"/>
+      <c r="A106" s="26">
+        <v>44891</v>
+      </c>
       <c r="B106" s="15">
         <f t="shared" si="2"/>
         <v>815</v>
       </c>
       <c r="C106" s="29"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="25"/>
+      <c r="D106" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="23">
+        <v>3023</v>
+      </c>
+      <c r="F106" s="61"/>
+      <c r="G106" s="62"/>
       <c r="H106" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="26"/>
+      <c r="A107" s="26">
+        <v>44891</v>
+      </c>
       <c r="B107" s="15">
         <f t="shared" si="2"/>
         <v>816</v>
       </c>
       <c r="C107" s="29"/>
-      <c r="D107" s="84"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="25"/>
+      <c r="D107" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="23">
+        <v>8520</v>
+      </c>
+      <c r="F107" s="83">
+        <v>44892</v>
+      </c>
+      <c r="G107" s="25">
+        <v>8520</v>
+      </c>
       <c r="H107" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="26"/>
+      <c r="A108" s="26">
+        <v>44891</v>
+      </c>
       <c r="B108" s="15">
         <f t="shared" si="2"/>
         <v>817</v>
       </c>
       <c r="C108" s="29"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="25"/>
+      <c r="D108" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="23">
+        <v>539</v>
+      </c>
+      <c r="F108" s="83">
+        <v>44892</v>
+      </c>
+      <c r="G108" s="25">
+        <v>539</v>
+      </c>
       <c r="H108" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="26"/>
+      <c r="A109" s="26">
+        <v>44892</v>
+      </c>
       <c r="B109" s="15">
         <f t="shared" si="2"/>
         <v>818</v>
       </c>
       <c r="C109" s="29"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="25"/>
+      <c r="D109" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="23">
+        <v>3685</v>
+      </c>
+      <c r="F109" s="61"/>
+      <c r="G109" s="62"/>
       <c r="H109" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="26"/>
+      <c r="A110" s="26">
+        <v>44892</v>
+      </c>
       <c r="B110" s="15">
         <f t="shared" si="2"/>
         <v>819</v>
       </c>
       <c r="C110" s="29"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="25"/>
+      <c r="D110" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="23">
+        <v>7400</v>
+      </c>
+      <c r="F110" s="61"/>
+      <c r="G110" s="62"/>
       <c r="H110" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="26"/>
+      <c r="A111" s="26">
+        <v>44892</v>
+      </c>
       <c r="B111" s="15">
         <f t="shared" si="2"/>
         <v>820</v>
       </c>
       <c r="C111" s="29"/>
-      <c r="D111" s="84"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="25"/>
+      <c r="D111" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="23">
+        <v>22590</v>
+      </c>
+      <c r="F111" s="61"/>
+      <c r="G111" s="62"/>
       <c r="H111" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22590</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
+      <c r="A112" s="26">
+        <v>44892</v>
+      </c>
       <c r="B112" s="15">
         <f t="shared" si="2"/>
         <v>821</v>
       </c>
       <c r="C112" s="29"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="25"/>
+      <c r="D112" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="23">
+        <v>4866</v>
+      </c>
+      <c r="F112" s="61"/>
+      <c r="G112" s="62"/>
       <c r="H112" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="26"/>
+      <c r="A113" s="26">
+        <v>44892</v>
+      </c>
       <c r="B113" s="15">
         <f t="shared" si="2"/>
         <v>822</v>
       </c>
       <c r="C113" s="29"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="25"/>
+      <c r="D113" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="23">
+        <v>12122</v>
+      </c>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
       <c r="H113" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12122</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26"/>
+      <c r="A114" s="26">
+        <v>44892</v>
+      </c>
       <c r="B114" s="15">
         <f t="shared" si="2"/>
         <v>823</v>
       </c>
       <c r="C114" s="29"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="25"/>
+      <c r="D114" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="23">
+        <v>6374</v>
+      </c>
+      <c r="F114" s="61"/>
+      <c r="G114" s="62"/>
       <c r="H114" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
-      <c r="B115" s="15">
-        <f t="shared" si="2"/>
-        <v>824</v>
-      </c>
+      <c r="B115" s="15"/>
       <c r="C115" s="29"/>
-      <c r="D115" s="84"/>
+      <c r="D115" s="27"/>
       <c r="E115" s="23"/>
-      <c r="F115" s="83"/>
+      <c r="F115" s="24"/>
       <c r="G115" s="25"/>
       <c r="H115" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="26"/>
-      <c r="B116" s="15">
-        <f t="shared" si="2"/>
-        <v>825</v>
-      </c>
-      <c r="C116" s="29"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="25"/>
+    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="35"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="39">
+        <v>0</v>
+      </c>
+      <c r="F116" s="40"/>
+      <c r="G116" s="41"/>
       <c r="H116" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="26"/>
-      <c r="B117" s="15">
-        <f t="shared" si="2"/>
-        <v>826</v>
-      </c>
-      <c r="C117" s="29"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="26"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="35"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="39">
-        <v>0</v>
-      </c>
-      <c r="F119" s="40"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="76">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="43"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="45">
+        <f>SUM(E4:E116)</f>
+        <v>737708</v>
+      </c>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45">
+        <f>SUM(G4:G116)</f>
+        <v>666682</v>
+      </c>
+      <c r="H117" s="78">
+        <f>SUM(H4:H116)</f>
+        <v>71026</v>
+      </c>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="43"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="79"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B119" s="43"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="48"/>
+      <c r="G119" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="79"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="43"/>
       <c r="C120" s="44"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="45">
-        <f>SUM(E4:E119)</f>
-        <v>663997</v>
-      </c>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45">
-        <f>SUM(G4:G119)</f>
-        <v>617938</v>
-      </c>
-      <c r="H120" s="78">
-        <f>SUM(H4:H119)</f>
-        <v>46059</v>
-      </c>
+      <c r="E120" s="51"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="79"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B121" s="43"/>
       <c r="C121" s="44"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="79"/>
+      <c r="E121" s="91">
+        <f>E117-G117</f>
+        <v>71026</v>
+      </c>
+      <c r="F121" s="92"/>
+      <c r="G121" s="93"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B122" s="43"/>
       <c r="C122" s="44"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="51" t="s">
-        <v>10</v>
-      </c>
+      <c r="E122" s="47"/>
       <c r="F122" s="48"/>
-      <c r="G122" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" s="79"/>
+      <c r="G122" s="49"/>
       <c r="I122" s="2"/>
     </row>
-    <row r="123" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B123" s="43"/>
       <c r="C123" s="44"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="52"/>
-      <c r="H123" s="79"/>
+      <c r="E123" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="94"/>
+      <c r="G123" s="94"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="43"/>
       <c r="C124" s="44"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="91">
-        <f>E120-G120</f>
-        <v>46059</v>
-      </c>
-      <c r="F124" s="92"/>
-      <c r="G124" s="93"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="49"/>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B125" s="43"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="49"/>
+    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="26"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="53"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="54"/>
       <c r="I125" s="2"/>
     </row>
-    <row r="126" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="43"/>
       <c r="C126" s="44"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="94"/>
-      <c r="G126" s="94"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="49"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -9443,14 +9534,13 @@
       <c r="G127" s="49"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="26"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="54"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="43"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="49"/>
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
@@ -9507,39 +9597,12 @@
       <c r="G134" s="49"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="43"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="49"/>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="43"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="48"/>
-      <c r="G136" s="49"/>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="43"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="48"/>
-      <c r="G137" s="49"/>
-      <c r="I137" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E123:G123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
